--- a/01_Documentacion/05_Versionamiento/VERSIONAMIENTO.xlsx
+++ b/01_Documentacion/05_Versionamiento/VERSIONAMIENTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeshu\Dropbox\ING_REQUISITOS\GITHUB\EspinAndres_14568_G2_IR\01_Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\Nueva carpeta\REQUISITOS\Documentacion\EspinAndres_14568_G2_IR\01_Documentacion\05_Versionamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CD5EF55-45DA-48AE-93D2-ED7044E4F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44E10B-8357-4EF2-8CD8-CD65227FA268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -252,7 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,16 +264,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -279,6 +278,18 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -298,6 +309,144 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -313,156 +462,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -479,7 +478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:F8" headerRowDxfId="2" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:F8" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B3:F8" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -488,11 +487,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="5" totalsRowDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,48 +814,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB9EDE-D4CB-48E3-878D-BD391E643233}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -873,61 +872,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -935,8 +906,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1137,20 +1109,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,14 +1145,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1195,4 +1159,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>